--- a/admin_logins.xlsx
+++ b/admin_logins.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Username</t>
   </si>
@@ -28,6 +28,12 @@
   </si>
   <si>
     <t>test123</t>
+  </si>
+  <si>
+    <t>School Name</t>
+  </si>
+  <si>
+    <t>Dr GR PUBLIC SCHOOL</t>
   </si>
 </sst>
 </file>
@@ -366,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -376,22 +382,29 @@
   <cols>
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
     <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/admin_logins.xlsx
+++ b/admin_logins.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Username</t>
   </si>
@@ -24,26 +24,115 @@
     <t>Password</t>
   </si>
   <si>
-    <t>grpstest</t>
-  </si>
-  <si>
-    <t>test123</t>
-  </si>
-  <si>
     <t>School Name</t>
   </si>
   <si>
     <t>Dr GR PUBLIC SCHOOL</t>
+  </si>
+  <si>
+    <t>drgrps</t>
+  </si>
+  <si>
+    <t>arrps</t>
+  </si>
+  <si>
+    <t>A.R.R PUBLIC SCHOOL</t>
+  </si>
+  <si>
+    <t>chvs</t>
+  </si>
+  <si>
+    <t>CHINTHALAYA VIDYALAYA</t>
+  </si>
+  <si>
+    <t>rrvcs</t>
+  </si>
+  <si>
+    <t>RAJA RAVI VARMA CENTRAL SCHOOL</t>
+  </si>
+  <si>
+    <t>ssvs</t>
+  </si>
+  <si>
+    <t>ssvs@341</t>
+  </si>
+  <si>
+    <t>SARASWATHI VIDYALAYA</t>
+  </si>
+  <si>
+    <t>ssnsss</t>
+  </si>
+  <si>
+    <t>ssnsss@981</t>
+  </si>
+  <si>
+    <t>SIVAGIRI SREE NARAYANA SENIOR SECONDARY SCHOOL</t>
+  </si>
+  <si>
+    <t>sgps</t>
+  </si>
+  <si>
+    <t>sgps@231</t>
+  </si>
+  <si>
+    <t>SREE GOKULAM PUBLIC SCHOOL</t>
+  </si>
+  <si>
+    <t>sasvs1</t>
+  </si>
+  <si>
+    <t>sasvs1@992</t>
+  </si>
+  <si>
+    <t>SREE SARASWATHY VIDYALAYAM</t>
+  </si>
+  <si>
+    <t>VISHWABHARATHY PUBLIC SCHOOL</t>
+  </si>
+  <si>
+    <t>vsdps12</t>
+  </si>
+  <si>
+    <t>vbps</t>
+  </si>
+  <si>
+    <t>vsdps12@876</t>
+  </si>
+  <si>
+    <t>vbps@476</t>
+  </si>
+  <si>
+    <t>rrvcs@032</t>
+  </si>
+  <si>
+    <t>chvs@361</t>
+  </si>
+  <si>
+    <t>grps@823</t>
+  </si>
+  <si>
+    <t>arrps@276</t>
+  </si>
+  <si>
+    <t>VISWADARSHINI PUBLIC SCHOOL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -66,13 +155,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -372,17 +464,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
     <col min="2" max="2" width="12.140625" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="49.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -393,21 +485,132 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId10"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/admin_logins.xlsx
+++ b/admin_logins.xlsx
@@ -108,13 +108,13 @@
     <t>chvs@361</t>
   </si>
   <si>
-    <t>grps@823</t>
-  </si>
-  <si>
     <t>arrps@276</t>
   </si>
   <si>
     <t>VISWADARSHINI PUBLIC SCHOOL</t>
+  </si>
+  <si>
+    <t>grps823</t>
   </si>
 </sst>
 </file>
@@ -467,7 +467,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,7 +493,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -504,7 +504,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -595,12 +595,12 @@
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId1" display="grps@823"/>
     <hyperlink ref="B3" r:id="rId2"/>
     <hyperlink ref="B4" r:id="rId3"/>
     <hyperlink ref="B5" r:id="rId4"/>
